--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5257">
   <si>
     <t>translation_group</t>
   </si>
@@ -15746,12 +15746,6 @@
   </si>
   <si>
     <t xml:space="preserve"> إشعارات</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16138,17 +16132,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54795,18 +54789,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5241</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5242</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54816,10 +54802,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
       <c r="D2763" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54830,10 +54816,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5245</v>
+        <v>5243</v>
       </c>
       <c r="D2764" t="s">
-        <v>5246</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54844,10 +54830,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5247</v>
+        <v>5245</v>
       </c>
       <c r="D2765" t="s">
-        <v>5248</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54858,10 +54844,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="D2766" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54872,10 +54858,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="D2767" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54886,10 +54872,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="D2768" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54900,10 +54886,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="D2769" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54942,11 +54928,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="D2772" t="s">
-        <v>5258</v>
-      </c>
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5933">
   <si>
     <t>translation_group</t>
   </si>
@@ -10241,10 +10241,10 @@
     <t>إعدادات SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
-  </si>
-  <si>
-    <t>املأ الحقول للحصول على أقصى نتائج عند العثور على موقع الويب الخاص بك في محركات البحث.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
+  </si>
+  <si>
+    <t>املأ الحقول للحصول على أقصى النتائج عند العثور على موقع الويب الخاص بك في محركات البحث.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17240,6 +17240,598 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>مرحبًا بكم في Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>استخدم Microweber لإنشاء موقعك على الويب أو متجرك عبر الإنترنت أو مدونتك.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>إنشاء المحتوى وتعديله والبيع عبر الإنترنت وإدارة الطلبات والعملاء.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>إزالة</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>عربة مهجورة</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>أنت تستخدم هذا النموذج.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>سيؤثر التغيير على الصفحة الحالية فقط.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>السماح بنماذج متعددة</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>إذا سمحت بقوالب متعددة ، فستكون قادرًا على استخدام قوالب مختلفة عند إنشاء صفحات جديدة.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>إعدادات موقع البريد الإلكتروني الخاص بالنظام</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>تسليم الرسائل المتعلقة بالتسجيل الجديد وإعادة تعيين كلمة المرور ووظائف النظام الأخرى.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>من عنوان البريد الالكتروني</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>السابق. اسم موقع الويب الخاص بك</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>إعدادات مزود البريد الإلكتروني العام</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>قم بإعداد مزود البريد الإلكتروني الخاص بك.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>سيقوم مزود البريد الإلكتروني العام بتسليم جميع الرسائل المتعلقة بالموقع. بما في ذلك رسائل النظام ورسائل نموذج الاتصال.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>شعار الموقع</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>حدد شعارًا لموقع الويب الخاص بك.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>تحميل الشعار</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>موقع الويب المفضل</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>تغيير اللغة الافتراضية ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>مسح ذاكرة التخزين المؤقت..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>قم بتثبيت وحدة متعددة اللغات</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>يمكن للمستخدمين التسجيل برسائل بريد إلكتروني مؤقتة مثل Mailinator و MailDrop و Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>يمكن للمستخدمين المسجلين تلقي بريد إلكتروني تلقائي منك تلقائيًا. انظر الإعدادات وانشر رسائلك.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>أرسل بريدًا إلكترونيًا عند تسجيل مستخدم جديد إلى المستخدمين المسؤولين</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>هل تريد أن يتلقى المسؤولون بريدًا إلكترونيًا عند تسجيل مستخدم جديد؟</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber هو أداة إنشاء مواقع ويب مجانية مفتوحة المصدر بنظام السحب والإفلات ونظام إدارة المحتوى. إنه بموجب ترخيص معهد ماساتشوستس للتكنولوجيا (MIT) ونستخدم إطار عمل Laravel PHP</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>سلايدر</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>الشحن إلى العنوان</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>التقط من العنوان</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>تكامل البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>ليس لديك بريد إلكتروني للنظام وإعداد SMTP.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>قم بإعداد إعدادات النظام الخاص بك هنا.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>إعدادات نموذج الاتصال العامة</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>خيارات إرسال البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>المرسل العالمي</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>استخدم إعدادات المرسل المخصصة</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>استخدم إعدادات المرسل المخصصة لنماذج الاتصال العالمية.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>بشكل افتراضي ، سوف نستخدم إعدادات البريد الإلكتروني لنظام موقع الويب.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>يمكنك تغيير إعدادات البريد الإلكتروني للنظام هنا.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>أجهزة الاستقبال العالمية</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>إرسال بيانات نماذج الاتصال إلى المستلمين العالميين عند إرسالها</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>لعناوين البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>عنوان البريد الإلكتروني للمستقبلات مفصول بغيبوبة.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>اتصل بمزود الاستضافة الخاص بك لتمكين امتداد PHP SOAP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>عناصر</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>منذ شهرين</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>إزالة الشعار</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>إزالة الأيقونة المفضلة</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>العادة</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>المنتجات</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>الجدول الزمني</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>العلامة البيضاء WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>إصدارات المحتوى</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>التخطيطات والعناصر الافتراضية</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>قائمة الأسهم</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>قائمة محددة</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>نص الخلفية</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>عنوان مع نص</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>رمز مع نص</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>عمودين نص</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>عمودين نص مع رمز وعنوان</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>صورة مع العنوان والنص</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>نص مع صورة وعنوان</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>تمكين التعليقات</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>إعدادات Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">قم بإعداد تفضيلات captcha الخاصة بك من </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>إعدادات نموذج الاتصال الحالية</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>اسم نموذج الاتصال</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>ما هو اسم نموذج الاتصال هذا؟</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>ريسيفرات</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>إرسال بيانات نموذج الاتصال إلى المستلمين المخصصين عند إرسالها</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>استخدم إعدادات الاستقبال المخصصة لنموذج الاتصال الحالي.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>بشكل افتراضي ، سوف نستخدم الإعدادات العامة لنموذج الاتصال.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>يمكنك تغيير الإعدادات العامة لنموذج الاتصال هنا.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>رسالة الرد التلقائي للمستخدم</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>تفعيل رسالة الرد التلقائي للمستخدم</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>اسمح للمستخدمين بتلقي "رسائل شكر إلكترونية بعد الاشتراك".</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>الرد التلقائي المرسل المخصص</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>استخدم إعدادات المرسل المخصصة لنموذج الاتصال الحالي.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>الرد التلقائي من عنوان البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>الرد التلقائي من الاسم</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>الرد التلقائي على الرد على البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>عندما يتلقى المستخدم رسالة الرد التلقائي ، يمكنه الرد على الرد على البريد الإلكتروني.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>الرد التلقائي على مرفقات البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>ليس لديك أي مشاركات حتى الآن</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>أنشئ منشورك الأول الآن.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>أنشئ منشورًا</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>كيفية كتابة أوصاف المنتج التي تبيع
+                                                    أحد أفضل الأشياء التي يمكنك القيام بها لإنجاح متجرك هو استثمار بعض الوقت في كتابة أوصاف رائعة للمنتج. تريد تقديم معلومات مفصلة وموجزة من شأنها أن تغري العملاء المحتملين بالشراء.
+                                                    فكر كمستهلك
+                                                    فكر فيما تريد كمستهلك معرفته ، ثم قم بتضمين هذه الميزات في وصفك. للملابس: الخامات والملاءمة. للطعام: المكونات وطريقة تحضيره. تعتبر الرموز النقطية أصدقائك عند إدراج
+                                                   ميزات - حاول
+                                                            قصر كل واحدة على 5-8 كلمات.</t>
   </si>
 </sst>
 </file>
@@ -17578,7 +18170,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67886,6 +68478,1757 @@
         <v>3653</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5770</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5782</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5787</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5788</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5789</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5790</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5793</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5796</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5797</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5798</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5800</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5801</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5832</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5833</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4955</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3146</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4259</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5930</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6229">
   <si>
     <t>translation_group</t>
   </si>
@@ -17832,6 +17832,894 @@
                                                     فكر فيما تريد كمستهلك معرفته ، ثم قم بتضمين هذه الميزات في وصفك. للملابس: الخامات والملاءمة. للطعام: المكونات وطريقة تحضيره. تعتبر الرموز النقطية أصدقائك عند إدراج
                                                    ميزات - حاول
                                                             قصر كل واحدة على 5-8 كلمات.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>لغة المسؤول</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>حد</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>محرر الكود</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>مدونة او مذكرة</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>العناوين</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>العناوين 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>العناوين 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>العناوين 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>العناوين 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>العناوين 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>العناوين 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>العناوين 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>العناوين 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>كتلة النص</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>كتلة النص 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>كتلة النص 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>كتلة النص 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>كتلة النص 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>كتلة النص 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>كتلة نصية 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>كتلة نصية 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>كتلة نصية 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>كتلة النص 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>كتلة نصية 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>كتلة النص 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>كتلة نصية 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>كتلة نصية 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>كتلة النص 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>كتلة النص 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>الميزات</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>الميزات 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>الميزات 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>الميزات 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>الميزات 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>شبكات</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>القائمة - الجلد -1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>القائمة - الجلد -2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>القائمة - الجلد 3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>القائمة - الجلد - 4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>القائمة - الجلد - 5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>التذييلات</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>التذييلات 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>التذييلات 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>التذييلات 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>التذييلات 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>آخر</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>جمبوترون</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>جمبوترون 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>التسعير 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>التخطيطات الافتراضية</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>لا يوجد محتوى هنا</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>يتم حفظ الحقول المخصصة</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>المجالات الموجودة</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>اختر من الحقول الموجودة أدناه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> أضف حقول جديدة</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>إضافة حقل مخصص جديد من القائمة أدناه</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>المجالات الخاصة بك</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>قائمة الحقول المخصصة المضافة الخاصة بك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كرر عموديا </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>خط العائلة</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>تراكب</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>وضع المزج</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>حاوية</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>نوع الحاوية</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>الرسوم المتحركة</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>إعادة الأنماط</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>روابط إلى</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>معاينة الحزمة</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>يستخدم</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>تيار</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>إعادة ترتيب</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>نظام</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>إعادة توجيه المتصفح</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>اندماج</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>محدث مستقل</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>أنت بحاجة إلى مفتاح ترخيص لتثبيت هذه الحزمة</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>هذه الحزمة ممتازة ويجب أن يكون لديك مفتاح ترخيص لتثبيتها</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>أنت بحاجة إلى مفتاح الترخيص</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>تم تفعيل الترخيص</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>إعادة تحميل الصفحة</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>الترخيص غير مفعل</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>عنوان Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>تحديثات النظام</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>تحقق من تحديثات النظام</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>العودة للقائمة</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>يجب أن يكون للفئة اسم</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>هل الفئة مخفية؟</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>إذا قمت بتعيين هذا على YES ، فسيتم إخفاء هذه الفئة من موقع الويب</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>يذكر</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>عربة التسوق فارغة.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>العثور على نتائج</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>إذا اخترت النسبة المئوية من حقل التحديد ، فسيتم حسابها تلقائيًا من السعر وسعر العرض للمنتج.</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US. مطلوب</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>القيم المتعددة اللغات. العنوان. en_US.</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>باشرالخروج من الفندق</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>العرض</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>النتائج)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>عنوان الصفحة - مسار التنقل الأيمن</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>عنوان الصفحة - مسار التنقل الأيسر</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>تعليمات الاستخدام</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>التسليم والإرجاع</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>حوالي 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>حوالي 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>حوالي 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>الصفحة الرئيسية 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>الصفحة الرئيسية 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>يجب النقر فوق زر تطبيق القالب لتغيير القالب الخاص بك</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>البحث بالمعايير</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>التاريخ من</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>حدد الطلبات من التاريخ</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>تاريخ ل</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>حدد الطلبات حتى الآن</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>طلب مبلغ من</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>أظهر الطلب مع الحد الأدنى للمبلغ</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>طلب مبلغ ل</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>اعرض الأمر بأقصى مبلغ</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>بحث بالمنتجات ...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>البحث عن طريق المنتجات</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>حالة السداد</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>بحث مجاني عن طريق الهاتف والاسم والبريد الإلكتروني وما إلى ذلك ...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>أرسل هذه المعايير</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>تصفية إعادة تعيين</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>تصدير الكل</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>حدد الفرز</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>تاريخ الطلب</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[جديد&gt; قديم]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[قديم&gt; جديد]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[مرتفع&gt; منخفض]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[منخفض&gt; مرتفع]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>تم اكتمال الطلب</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>تم العثور على ترجمات من وحدة multilnaguage في قاعدة البيانات الخاصة بك.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>تحذير! قد يؤدي تغيير اللغة الافتراضية إلى تعطيل الترجمات على موقعك.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>هل أنت متأكد أنك تريد الاستمرار؟</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>تحذير! ربما تؤدي اللغة الافتراضية المتغيرة إلى كسر موقعك.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>تفاصيل الشحن</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>الطلب لم يكتمل بعد</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>تم الانتهاء من الطلب</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>أنشئت في</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>تم التحديث في</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نظرة سريعة </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>استبدل قيم اللغة</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>يتم استيراد الترجمات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الترجمات غير موجودة في قاعدة البيانات. هل ترغب في استيراد الترجمات؟ </t>
   </si>
 </sst>
 </file>
@@ -17855,10 +18743,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17869,7 +18754,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18170,7 +19055,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70232,8 +71117,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>6005</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>6007</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>6009</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>6013</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>6016</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>6017</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6041</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6042</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6060</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6062</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6064</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6112</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5930</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6134</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6135</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6137</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6138</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6139</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6140</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6141</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6158</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6159</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6162</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6163</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6164</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6165</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6180</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6181</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6182</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6183</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6184</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6185</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6186</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6187</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6189</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6190</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6191</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6192</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6193</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6194</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6195</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6196</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6197</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6198</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6200</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6201</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6202</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6203</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6204</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6205</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6206</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6207</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6208</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6209</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6210</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6211</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6212</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6216</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6218</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6221</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6222</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6223</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6224</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6225</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6226</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6227</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6228</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70245,5 +73764,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ar_SA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6040">
   <si>
     <t>translation_group</t>
   </si>
@@ -10244,7 +10244,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>املأ الحقول للحصول على أقصى النتائج عند العثور على موقع الويب الخاص بك في محركات البحث.</t>
+    <t>املأ الحقول للحصول على أقصى نتائج عند العثور على موقع الويب الخاص بك في محركات البحث.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17263,7 +17263,7 @@
     <t>Remove</t>
   </si>
   <si>
-    <t>إزالة</t>
+    <t>يزيل</t>
   </si>
   <si>
     <t>Abandoned cart's</t>
@@ -17383,7 +17383,7 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>يمكن للمستخدمين التسجيل برسائل بريد إلكتروني مؤقتة مثل Mailinator و MailDrop و Guerrilla ... s</t>
+    <t>يمكن للمستخدمين التسجيل مع رسائل البريد الإلكتروني المؤقتة مثل - Mailinator ، MailDrop ، Guerrilla ... s</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
@@ -17482,7 +17482,7 @@
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>بشكل افتراضي ، سوف نستخدم إعدادات البريد الإلكتروني لنظام موقع الويب.</t>
+    <t>بشكل افتراضي ، سنستخدم إعدادات البريد الإلكتروني لنظام موقع الويب.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17506,7 +17506,7 @@
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>لعناوين البريد الإلكتروني</t>
+    <t>إلى عناوين البريد الإلكتروني</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
@@ -17840,358 +17840,277 @@
     <t>لغة المسؤول</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>أضف صفحة فرعية</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>تم حذف الفئة</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>تم حذف المحتوى</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>فئات البحث</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>أنشئ محتوى</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>بطاقة</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>أي</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>معرف الوصف</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>معرف تصاعدي</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>حد</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>هل أنت متأكد من أنك تريد الحذف؟</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>ليس لديك أي منتجات في</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>ارجع الى</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>يتم حفظ الحقول المخصصة</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>المجالات الموجودة</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>اختر من الحقول الموجودة أدناه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> أضف حقول جديدة</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>إضافة حقل مخصص جديد من القائمة أدناه</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>المجالات الخاصة بك</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>قائمة الحقول المخصصة المضافة الخاصة بك</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>نظام</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>مدونة او مذكرة</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>إعادة توجيه المتصفح</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>الإدماج</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>أداة الاستيراد والتصدير</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>محدث مستقل</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>معاينة الحزمة</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>يستخدم</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>حاضِر</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>يعبر</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>الصف الأول</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>انقر واستلم</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>خلفية الفيديو</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>يمكنك تنشيط الوحدة متعددة اللغات لاستخدام لغات متعددة</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>وضع متعدد اللغات</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>قم بتنشيط الوضع متعدد اللغات للحصول على لغات متعددة للمحتوى الخاص بك.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>يتم استيراد الترجمات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الترجمات غير موجودة في قاعدة البيانات. هل ترغب في استيراد الترجمات؟ </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>عربة التسوق فارغة.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>محرر الكود</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>مدونة او مذكرة</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>العناوين</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>العناوين 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>العناوين 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>العناوين 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>العناوين 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>العناوين 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>العناوين 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>العناوين 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>العناوين 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>كتلة النص</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>كتلة النص 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>كتلة النص 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>كتلة النص 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>كتلة النص 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>كتلة النص 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>كتلة نصية 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>كتلة نصية 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>كتلة نصية 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>كتلة النص 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>كتلة نصية 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>كتلة النص 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>كتلة نصية 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>كتلة نصية 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>كتلة النص 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>كتلة النص 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>الميزات</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>الميزات 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>الميزات 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>الميزات 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>الميزات 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>شبكات</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>القائمة - الجلد -1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>القائمة - الجلد -2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>القائمة - الجلد 3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>القائمة - الجلد - 4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>القائمة - الجلد - 5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>التذييلات</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>التذييلات 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>التذييلات 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>التذييلات 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>التذييلات 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>آخر</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>جمبوترون</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>جمبوترون 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>التسعير 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>التخطيطات الافتراضية</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>لا يوجد محتوى هنا</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>يتم حفظ الحقول المخصصة</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>المجالات الموجودة</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>اختر من الحقول الموجودة أدناه</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> أضف حقول جديدة</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>إضافة حقل مخصص جديد من القائمة أدناه</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>المجالات الخاصة بك</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>قائمة الحقول المخصصة المضافة الخاصة بك</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>استيراد جديد</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">كرر عموديا </t>
+    <t xml:space="preserve">كرر عموديًا </t>
   </si>
   <si>
     <t>Font Family</t>
@@ -18215,7 +18134,7 @@
     <t>Container</t>
   </si>
   <si>
-    <t>حاوية</t>
+    <t>وعاء</t>
   </si>
   <si>
     <t>Container type</t>
@@ -18234,492 +18153,6 @@
   </si>
   <si>
     <t>إعادة الأنماط</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>روابط إلى</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>معاينة الحزمة</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>يستخدم</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>تيار</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>إعادة ترتيب</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>نظام</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>إعادة توجيه المتصفح</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>اندماج</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>محدث مستقل</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>أنت بحاجة إلى مفتاح ترخيص لتثبيت هذه الحزمة</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>هذه الحزمة ممتازة ويجب أن يكون لديك مفتاح ترخيص لتثبيتها</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>أنت بحاجة إلى مفتاح الترخيص</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>تم تفعيل الترخيص</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>إعادة تحميل الصفحة</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>الترخيص غير مفعل</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>عنوان Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>تحديثات النظام</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>تحقق من تحديثات النظام</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>العودة للقائمة</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>يجب أن يكون للفئة اسم</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>هل الفئة مخفية؟</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>إذا قمت بتعيين هذا على YES ، فسيتم إخفاء هذه الفئة من موقع الويب</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>يذكر</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>عربة التسوق فارغة.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>العثور على نتائج</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>إذا اخترت النسبة المئوية من حقل التحديد ، فسيتم حسابها تلقائيًا من السعر وسعر العرض للمنتج.</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US. مطلوب</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>القيم المتعددة اللغات. العنوان. en_US.</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>باشرالخروج من الفندق</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>العرض</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>النتائج)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>عنوان الصفحة - مسار التنقل الأيمن</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>عنوان الصفحة - مسار التنقل الأيسر</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>تعليمات الاستخدام</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>التسليم والإرجاع</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>حوالي 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>حوالي 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>حوالي 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>الصفحة الرئيسية 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>الصفحة الرئيسية 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>يجب النقر فوق زر تطبيق القالب لتغيير القالب الخاص بك</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>البحث بالمعايير</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>التاريخ من</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>حدد الطلبات من التاريخ</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>تاريخ ل</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>حدد الطلبات حتى الآن</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>طلب مبلغ من</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>أظهر الطلب مع الحد الأدنى للمبلغ</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>طلب مبلغ ل</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>اعرض الأمر بأقصى مبلغ</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>بحث بالمنتجات ...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>البحث عن طريق المنتجات</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>حالة السداد</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>بحث مجاني عن طريق الهاتف والاسم والبريد الإلكتروني وما إلى ذلك ...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>أرسل هذه المعايير</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>تصفية إعادة تعيين</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>تصدير الكل</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>حدد الفرز</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>تاريخ الطلب</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[جديد&gt; قديم]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[قديم&gt; جديد]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[مرتفع&gt; منخفض]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[منخفض&gt; مرتفع]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>تم اكتمال الطلب</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>تم العثور على ترجمات من وحدة multilnaguage في قاعدة البيانات الخاصة بك.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>تحذير! قد يؤدي تغيير اللغة الافتراضية إلى تعطيل الترجمات على موقعك.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>هل أنت متأكد أنك تريد الاستمرار؟</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>تحذير! ربما تؤدي اللغة الافتراضية المتغيرة إلى كسر موقعك.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>تفاصيل الشحن</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>الطلب لم يكتمل بعد</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>تم الانتهاء من الطلب</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>أنشئت في</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>تم التحديث في</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">نظرة سريعة </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>استبدل قيم اللغة</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>يتم استيراد الترجمات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الترجمات غير موجودة في قاعدة البيانات. هل ترغب في استيراد الترجمات؟ </t>
   </si>
 </sst>
 </file>
@@ -19055,7 +18488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -71145,7 +70578,7 @@
         <v>5935</v>
       </c>
       <c r="D3064" t="s">
-        <v>5936</v>
+        <v>4288</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71159,10 +70592,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3065" t="s">
         <v>5937</v>
-      </c>
-      <c r="D3065" t="s">
-        <v>5938</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71176,10 +70609,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3066" t="s">
         <v>5939</v>
-      </c>
-      <c r="D3066" t="s">
-        <v>5940</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71193,10 +70626,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3067" t="s">
         <v>5941</v>
-      </c>
-      <c r="D3067" t="s">
-        <v>5942</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71210,10 +70643,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3068" t="s">
         <v>5943</v>
-      </c>
-      <c r="D3068" t="s">
-        <v>5944</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71227,10 +70660,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3069" t="s">
         <v>5945</v>
-      </c>
-      <c r="D3069" t="s">
-        <v>5946</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71244,10 +70677,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3070" t="s">
         <v>5947</v>
-      </c>
-      <c r="D3070" t="s">
-        <v>5948</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71261,10 +70694,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3071" t="s">
         <v>5949</v>
-      </c>
-      <c r="D3071" t="s">
-        <v>5950</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71278,10 +70711,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3072" t="s">
         <v>5951</v>
-      </c>
-      <c r="D3072" t="s">
-        <v>5952</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71295,10 +70728,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3073" t="s">
         <v>5953</v>
-      </c>
-      <c r="D3073" t="s">
-        <v>5954</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71312,10 +70745,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3074" t="s">
         <v>5955</v>
-      </c>
-      <c r="D3074" t="s">
-        <v>5956</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71329,10 +70762,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3075" t="s">
         <v>5957</v>
-      </c>
-      <c r="D3075" t="s">
-        <v>5958</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71346,10 +70779,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3076" t="s">
         <v>5959</v>
-      </c>
-      <c r="D3076" t="s">
-        <v>5960</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71363,10 +70796,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3077" t="s">
         <v>5961</v>
-      </c>
-      <c r="D3077" t="s">
-        <v>5962</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71380,10 +70813,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
       <c r="D3078" t="s">
-        <v>5964</v>
+        <v>2157</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71397,10 +70830,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5965</v>
+        <v>5963</v>
       </c>
       <c r="D3079" t="s">
-        <v>5966</v>
+        <v>5964</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71414,10 +70847,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="D3080" t="s">
-        <v>5968</v>
+        <v>5966</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71431,10 +70864,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5969</v>
+        <v>5967</v>
       </c>
       <c r="D3081" t="s">
-        <v>5970</v>
+        <v>5968</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71448,10 +70881,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5971</v>
+        <v>5969</v>
       </c>
       <c r="D3082" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71465,10 +70898,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="D3083" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71482,10 +70915,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="D3084" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71499,10 +70932,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5977</v>
+        <v>5975</v>
       </c>
       <c r="D3085" t="s">
-        <v>5978</v>
+        <v>5976</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71516,10 +70949,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5979</v>
+        <v>5977</v>
       </c>
       <c r="D3086" t="s">
-        <v>5980</v>
+        <v>3672</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71533,10 +70966,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5981</v>
+        <v>5978</v>
       </c>
       <c r="D3087" t="s">
-        <v>5982</v>
+        <v>5979</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71550,10 +70983,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5983</v>
+        <v>5980</v>
       </c>
       <c r="D3088" t="s">
-        <v>5984</v>
+        <v>5981</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71567,10 +71000,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5985</v>
+        <v>5982</v>
       </c>
       <c r="D3089" t="s">
-        <v>5986</v>
+        <v>5983</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71584,10 +71017,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5987</v>
+        <v>5984</v>
       </c>
       <c r="D3090" t="s">
-        <v>5988</v>
+        <v>5985</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71601,10 +71034,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5989</v>
+        <v>5986</v>
       </c>
       <c r="D3091" t="s">
-        <v>5990</v>
+        <v>5987</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71618,10 +71051,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5991</v>
+        <v>5988</v>
       </c>
       <c r="D3092" t="s">
-        <v>5992</v>
+        <v>5989</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71635,10 +71068,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5993</v>
+        <v>5990</v>
       </c>
       <c r="D3093" t="s">
-        <v>5994</v>
+        <v>5991</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71652,10 +71085,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5995</v>
+        <v>5992</v>
       </c>
       <c r="D3094" t="s">
-        <v>5996</v>
+        <v>3473</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71669,10 +71102,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5997</v>
+        <v>5993</v>
       </c>
       <c r="D3095" t="s">
-        <v>5998</v>
+        <v>5994</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71686,10 +71119,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5999</v>
+        <v>5995</v>
       </c>
       <c r="D3096" t="s">
-        <v>6000</v>
+        <v>5996</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71703,10 +71136,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>6001</v>
+        <v>5997</v>
       </c>
       <c r="D3097" t="s">
-        <v>6002</v>
+        <v>5998</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71720,10 +71153,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>6003</v>
+        <v>5999</v>
       </c>
       <c r="D3098" t="s">
-        <v>2232</v>
+        <v>6000</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71737,10 +71170,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>6004</v>
+        <v>6001</v>
       </c>
       <c r="D3099" t="s">
-        <v>6005</v>
+        <v>6002</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71754,10 +71187,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>6006</v>
+        <v>6003</v>
       </c>
       <c r="D3100" t="s">
-        <v>6007</v>
+        <v>6004</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71771,10 +71204,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>6008</v>
+        <v>6005</v>
       </c>
       <c r="D3101" t="s">
-        <v>6009</v>
+        <v>1524</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71788,10 +71221,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>6010</v>
+        <v>6006</v>
       </c>
       <c r="D3102" t="s">
-        <v>6011</v>
+        <v>6007</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71805,10 +71238,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>6012</v>
+        <v>6008</v>
       </c>
       <c r="D3103" t="s">
-        <v>6013</v>
+        <v>6009</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71822,10 +71255,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>6014</v>
+        <v>6010</v>
       </c>
       <c r="D3104" t="s">
-        <v>6015</v>
+        <v>6011</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71839,10 +71272,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>6016</v>
+        <v>6012</v>
       </c>
       <c r="D3105" t="s">
-        <v>6017</v>
+        <v>6013</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71856,10 +71289,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>6018</v>
+        <v>6014</v>
       </c>
       <c r="D3106" t="s">
-        <v>6019</v>
+        <v>6015</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71873,10 +71306,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>6020</v>
+        <v>6016</v>
       </c>
       <c r="D3107" t="s">
-        <v>6021</v>
+        <v>6017</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71890,10 +71323,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>6022</v>
+        <v>6018</v>
       </c>
       <c r="D3108" t="s">
-        <v>6023</v>
+        <v>6019</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71906,11 +71339,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>6025</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71923,11 +71356,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>6021</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71941,10 +71374,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>6026</v>
+        <v>6022</v>
       </c>
       <c r="D3111" t="s">
-        <v>6027</v>
+        <v>6023</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71958,10 +71391,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>6028</v>
+        <v>6024</v>
       </c>
       <c r="D3112" t="s">
-        <v>6029</v>
+        <v>6025</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71975,10 +71408,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>6030</v>
+        <v>6026</v>
       </c>
       <c r="D3113" t="s">
-        <v>2696</v>
+        <v>6027</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71992,10 +71425,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>6031</v>
+        <v>6028</v>
       </c>
       <c r="D3114" t="s">
-        <v>6032</v>
+        <v>6029</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -72009,10 +71442,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6033</v>
+        <v>6030</v>
       </c>
       <c r="D3115" t="s">
-        <v>6034</v>
+        <v>6031</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -72026,10 +71459,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6035</v>
+        <v>6032</v>
       </c>
       <c r="D3116" t="s">
-        <v>6036</v>
+        <v>6033</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -72043,10 +71476,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6037</v>
+        <v>6034</v>
       </c>
       <c r="D3117" t="s">
-        <v>6038</v>
+        <v>6035</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -72060,10 +71493,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6039</v>
+        <v>6036</v>
       </c>
       <c r="D3118" t="s">
-        <v>6040</v>
+        <v>6037</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -72077,1678 +71510,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6041</v>
+        <v>6038</v>
       </c>
       <c r="D3119" t="s">
-        <v>6042</v>
+        <v>6039</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>3473</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6112</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5930</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>3668</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>3668</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6121</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6121</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>2704</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>2704</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>4223</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>4223</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3818</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6133</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6135</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6136</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6137</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6139</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6140</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6141</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6142</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6158</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6159</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6160</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6161</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6162</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6163</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6164</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6165</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6167</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6179</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6180</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6181</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6182</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6183</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6184</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6185</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6186</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6187</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6188</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6189</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6190</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6191</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6192</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6193</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6194</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6195</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6196</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6197</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6198</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6200</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6201</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6202</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6203</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6204</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6205</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6206</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6207</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6208</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6209</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6210</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6211</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6212</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4381</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6213</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6214</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6215</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6216</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6217</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6218</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6219</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6220</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6221</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6222</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6223</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6224</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6225</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6226</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6227</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6228</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
